--- a/2024/Quân khí/6. SO NVQK CDBB (S)/giaonhan.xlsx
+++ b/2024/Quân khí/6. SO NVQK CDBB (S)/giaonhan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DUNG-pct\Desktop\Thư mục mới\6. SO NVQK CDBB (S)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\2024\Quân khí\6. SO NVQK CDBB (S)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A4985-F154-404B-A27B-E99879C5954F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB0CBC1-5A9B-463E-AD52-D7252DFD58B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,9 +243,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve"> TT</t>
-  </si>
-  <si>
     <t>ĐĂNG KÝ QUẢN LÝ SỔ</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>TL. SƯ ĐOÀN TRƯỞNG                                                   KT CHỦ NHIỆM HC-KT                                     PHÓ CHỦ NHIỆM</t>
+  </si>
+  <si>
+    <t>TT</t>
   </si>
 </sst>
 </file>
@@ -586,6 +586,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="8" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,9 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -42219,7 +42219,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -42233,47 +42233,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
+      <c r="A3" s="17" t="s">
+        <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>2</v>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
-        <v>6</v>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="19"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
